--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangTongHop_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangTongHop_Export_Template.xlsx
@@ -32,28 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>SoDienThoai</t>
-  </si>
-  <si>
-    <t>CanCuocCongDan</t>
-  </si>
-  <si>
-    <t>TenTinhThanh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Báo cáo bán hàng tổng hợp</t>
   </si>
@@ -253,29 +232,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,15 +542,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="26" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
@@ -581,38 +560,16 @@
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:90" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -654,25 +611,25 @@
     </row>
     <row r="4" spans="1:90" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>10</v>
+      <c r="D4" s="23" t="s">
+        <v>3</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>11</v>
+      <c r="E4" s="23" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -762,8 +719,8 @@
       <c r="A5" s="20"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="17"/>
       <c r="G5" s="14"/>
       <c r="L5" s="7"/>
@@ -803,8 +760,8 @@
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="19"/>
       <c r="G6" s="7"/>
       <c r="L6" s="7"/>
@@ -844,8 +801,8 @@
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="19"/>
       <c r="G7" s="7"/>
       <c r="L7" s="7"/>
@@ -885,8 +842,8 @@
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="19"/>
       <c r="G8" s="7"/>
       <c r="L8" s="7"/>
@@ -924,8 +881,8 @@
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="19"/>
       <c r="G9" s="7"/>
       <c r="L9" s="7"/>
@@ -963,8 +920,8 @@
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="19"/>
       <c r="G10" s="7"/>
       <c r="L10" s="7"/>
@@ -1002,8 +959,8 @@
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="19"/>
       <c r="G11" s="7"/>
       <c r="L11" s="7"/>
@@ -1041,8 +998,8 @@
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="19"/>
       <c r="G12" s="7"/>
       <c r="L12" s="7"/>
@@ -1080,8 +1037,8 @@
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="19"/>
       <c r="G13" s="7"/>
       <c r="L13" s="7"/>
@@ -1119,8 +1076,8 @@
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="19"/>
       <c r="G14" s="7"/>
       <c r="L14" s="7"/>
@@ -1158,568 +1115,568 @@
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="19"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
       <c r="F16" s="19"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="19"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="19"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="19"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="19"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="19"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="19"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="19"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="19"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="19"/>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="29"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
       <c r="F26" s="19"/>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="18"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="19"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="19"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="29"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="19"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="29"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="19"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="29"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="19"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="19"/>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="18"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="19"/>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="18"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="19"/>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="18"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="19"/>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="18"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="29"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="19"/>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="18"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="19"/>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="29"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="19"/>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="18"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="19"/>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="18"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="29"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="19"/>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="18"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="29"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="19"/>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="18"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="29"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="19"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="29"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="19"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="18"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="29"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="19"/>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="18"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="29"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="19"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="29"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="28"/>
       <c r="F46" s="19"/>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="C47" s="7"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="29"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="19"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="29"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="19"/>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
       <c r="C49" s="7"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="29"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="19"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
       <c r="C50" s="7"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="29"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="19"/>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="18"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="29"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="19"/>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="18"/>
       <c r="C52" s="7"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="29"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="19"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="28"/>
       <c r="F53" s="19"/>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="18"/>
       <c r="C54" s="7"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="29"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="19"/>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="18"/>
       <c r="C55" s="7"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="29"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="28"/>
       <c r="F55" s="19"/>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="29"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="28"/>
       <c r="F56" s="19"/>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="18"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="29"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="28"/>
       <c r="F57" s="19"/>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="18"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="29"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="19"/>
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="18"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="29"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="19"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="18"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="29"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="19"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="18"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="29"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="19"/>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="18"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="29"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="19"/>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="29"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="19"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="18"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="29"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="28"/>
       <c r="F64" s="19"/>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="18"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="29"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="19"/>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="18"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="29"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="19"/>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="18"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="29"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="19"/>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="18"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="29"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="28"/>
       <c r="F68" s="19"/>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="18"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="19"/>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="18"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="29"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="28"/>
       <c r="F70" s="19"/>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="18"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="29"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="28"/>
       <c r="F71" s="19"/>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="28"/>
       <c r="F72" s="19"/>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="29"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="19"/>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="29"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="19"/>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="18"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="29"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="28"/>
       <c r="F75" s="19"/>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="29"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="28"/>
       <c r="F76" s="19"/>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="18"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="29"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="28"/>
       <c r="F77" s="19"/>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="18"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="29"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="28"/>
       <c r="F78" s="19"/>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="18"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="29"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="19"/>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="18"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="29"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="28"/>
       <c r="F80" s="19"/>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="18"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="29"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="28"/>
       <c r="F81" s="19"/>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="18"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="29"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="28"/>
       <c r="F82" s="19"/>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="18"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="29"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="28"/>
       <c r="F83" s="19"/>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="18"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="29"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="19"/>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="18"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="29"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="28"/>
       <c r="F85" s="19"/>
       <c r="G85" s="7"/>
     </row>

--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangTongHop_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/BaoCaoBanHangTongHop_Export_Template.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\Open beauty\lucky_beauty\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="DanhSach" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tên dịch vụ</t>
   </si>
@@ -60,12 +55,15 @@
   <si>
     <t>Tổng</t>
   </si>
+  <si>
+    <t>Giá vốn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -306,6 +304,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -411,7 +412,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -588,80 +589,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CM83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" style="16" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="18" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="24" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:91" ht="41.25" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:90" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="28"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:91" s="31" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-    </row>
-    <row r="3" spans="1:90" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="28"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:91" s="31" customFormat="1">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="36"/>
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
@@ -693,8 +697,9 @@
       <c r="AP3" s="37"/>
       <c r="AQ3" s="37"/>
       <c r="AR3" s="37"/>
-    </row>
-    <row r="4" spans="1:90" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS3" s="37"/>
+    </row>
+    <row r="4" spans="1:91" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -710,17 +715,19 @@
       <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -799,17 +806,18 @@
       <c r="CJ4" s="10"/>
       <c r="CK4" s="10"/>
       <c r="CL4" s="10"/>
-    </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CM4" s="10"/>
+    </row>
+    <row r="5" spans="1:91">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="17"/>
       <c r="D5" s="20"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="21"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="21"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -841,17 +849,18 @@
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
-    </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AS5" s="7"/>
+    </row>
+    <row r="6" spans="1:91">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="D6" s="20"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="21"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -883,17 +892,18 @@
       <c r="AP6" s="7"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
-    </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AS6" s="7"/>
+    </row>
+    <row r="7" spans="1:91">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="D7" s="20"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="21"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="21"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -923,17 +933,18 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
-    </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="7"/>
+    </row>
+    <row r="8" spans="1:91">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="17"/>
       <c r="D8" s="20"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="21"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="21"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -963,17 +974,18 @@
       <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
       <c r="AP8" s="7"/>
-    </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AQ8" s="7"/>
+    </row>
+    <row r="9" spans="1:91">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="17"/>
       <c r="D9" s="20"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="21"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1003,22 +1015,23 @@
       <c r="AN9" s="7"/>
       <c r="AO9" s="7"/>
       <c r="AP9" s="7"/>
-    </row>
-    <row r="10" spans="1:90" s="26" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="AQ9" s="7"/>
+    </row>
+    <row r="10" spans="1:91" s="26" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="27">
         <f>SUM(D$5:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="38">
         <f>SUM(E$5:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="38">
         <f>SUM(F$5:F9)</f>
         <v>0</v>
       </c>
@@ -1026,12 +1039,15 @@
         <f>SUM(G$5:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="27">
+        <f>SUM(H$5:H9)</f>
+        <v>0</v>
+      </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
@@ -1061,17 +1077,18 @@
       <c r="AN10" s="25"/>
       <c r="AO10" s="25"/>
       <c r="AP10" s="25"/>
-    </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="25"/>
+    </row>
+    <row r="11" spans="1:91">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="17"/>
       <c r="D11" s="20"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="21"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="21"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1101,17 +1118,18 @@
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
       <c r="AP11" s="7"/>
-    </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="7"/>
+    </row>
+    <row r="12" spans="1:91">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="17"/>
       <c r="D12" s="20"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="21"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="21"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1141,651 +1159,723 @@
       <c r="AN12" s="7"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="7"/>
-    </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="AQ12" s="7"/>
+    </row>
+    <row r="13" spans="1:91">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="17"/>
       <c r="D13" s="20"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="G13" s="14"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:91">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="17"/>
       <c r="D14" s="20"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="G14" s="14"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:91">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="17"/>
       <c r="D15" s="20"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="G15" s="14"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:91">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="17"/>
       <c r="D16" s="20"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="14"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="17"/>
       <c r="D17" s="20"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="14"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="17"/>
       <c r="D18" s="20"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="14"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="17"/>
       <c r="D19" s="20"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="14"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="17"/>
       <c r="D20" s="20"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="14"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="17"/>
       <c r="D21" s="20"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="14"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="17"/>
       <c r="D22" s="20"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="14"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="17"/>
       <c r="D23" s="20"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="14"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17"/>
       <c r="D24" s="20"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="14"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="17"/>
       <c r="D25" s="20"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="14"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="17"/>
       <c r="D26" s="20"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="14"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="17"/>
       <c r="D27" s="20"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="14"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="17"/>
       <c r="D28" s="20"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="14"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="17"/>
       <c r="D29" s="20"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="14"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="17"/>
       <c r="D30" s="20"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="14"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="17"/>
       <c r="D31" s="20"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="14"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="17"/>
       <c r="D32" s="20"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="14"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="17"/>
       <c r="D33" s="20"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="14"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="17"/>
       <c r="D34" s="20"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="14"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="17"/>
       <c r="D35" s="20"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="14"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="17"/>
       <c r="D36" s="20"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="14"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="17"/>
       <c r="D37" s="20"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="14"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="17"/>
       <c r="D38" s="20"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="14"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="17"/>
       <c r="D39" s="20"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="14"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="17"/>
       <c r="D40" s="20"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="14"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="17"/>
       <c r="D41" s="20"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="14"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="17"/>
       <c r="D42" s="20"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="14"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="17"/>
       <c r="D43" s="20"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="14"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="17"/>
       <c r="D44" s="20"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="14"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="17"/>
       <c r="D45" s="20"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="14"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="17"/>
       <c r="D46" s="20"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="14"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="17"/>
       <c r="D47" s="20"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="14"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="17"/>
       <c r="D48" s="20"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="14"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="17"/>
       <c r="D49" s="20"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="14"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="17"/>
       <c r="D50" s="20"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="14"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="17"/>
       <c r="D51" s="20"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="14"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="17"/>
       <c r="D52" s="20"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="14"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="17"/>
       <c r="D53" s="20"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="21"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="14"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="17"/>
       <c r="D54" s="20"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="21"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="14"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="17"/>
       <c r="D55" s="20"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="14"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="17"/>
       <c r="D56" s="20"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="14"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="17"/>
       <c r="D57" s="20"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="21"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="14"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="17"/>
       <c r="D58" s="20"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="14"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="17"/>
       <c r="D59" s="20"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="14"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="17"/>
       <c r="D60" s="20"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="14"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="17"/>
       <c r="D61" s="20"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="14"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="17"/>
       <c r="D62" s="20"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="14"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="17"/>
       <c r="D63" s="20"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="14"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="17"/>
       <c r="D64" s="20"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="14"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="17"/>
       <c r="D65" s="20"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="14"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="17"/>
       <c r="D66" s="20"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="14"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="17"/>
       <c r="D67" s="20"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="14"/>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="17"/>
       <c r="D68" s="20"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="21"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="14"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="17"/>
       <c r="D69" s="20"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="14"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="17"/>
       <c r="D70" s="20"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="14"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="17"/>
       <c r="D71" s="20"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="14"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="17"/>
       <c r="D72" s="20"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="14"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="17"/>
       <c r="D73" s="20"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
-      <c r="G73" s="21"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="14"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="17"/>
       <c r="D74" s="20"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
-      <c r="G74" s="21"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="14"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="17"/>
       <c r="D75" s="20"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="14"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="17"/>
       <c r="D76" s="20"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="14"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="17"/>
       <c r="D77" s="20"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="14"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="17"/>
       <c r="D78" s="20"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
-      <c r="G78" s="21"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="14"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="17"/>
       <c r="D79" s="20"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
-      <c r="G79" s="21"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="14"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="17"/>
       <c r="D80" s="20"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="14"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="17"/>
       <c r="D81" s="20"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="14"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="17"/>
       <c r="D82" s="20"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="14"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="17"/>
       <c r="D83" s="20"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
-      <c r="G83" s="21"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
